--- a/Output_testing/R1_201907/Country/HKD/MN/IRAQ_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/IRAQ_201907_HKD_MN.xlsx
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>187</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/IRAQ_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/IRAQ_201907_HKD_MN.xlsx
@@ -544,20 +544,30 @@
       <c r="C7" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="D7" s="8" t="n">
-        <v>0.01602</v>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>0.356416</v>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0.124861</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.04645</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="H7" s="9" t="n">
-        <v>2124.818976279651</v>
+      <c r="H7" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
       <c r="I7" s="9" t="n">
         <v>-64.9676221045071</v>
@@ -652,11 +662,15 @@
       <c r="E10" s="8" t="n">
         <v>0.986497</v>
       </c>
-      <c r="F10" s="8" t="n">
-        <v>0.0114</v>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G10" s="8" t="n">
-        <v>0.1194</v>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H10" s="9" t="n">
         <v>-56.07674415705384</v>
@@ -664,8 +678,10 @@
       <c r="I10" s="9" t="n">
         <v>-98.84439587753434</v>
       </c>
-      <c r="J10" s="9" t="n">
-        <v>1430.769230769231</v>
+      <c r="J10" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
     <row r="11">

--- a/Output_testing/R1_201907/Country/HKD/MN/IRAQ_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/IRAQ_201907_HKD_MN.xlsx
@@ -826,136 +826,447 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>830.477325</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>89.12571634027184</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>363.769554</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>77.39710590340879</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>585.392458</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>81.67540138483278</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>185.66167</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>65.39094630798257</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-18.77733986211355</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>53.716383</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>5.764770415716528</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>64.083527</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>13.63467467616313</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>72.769642</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>10.1530001587082</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>78.38014800000001</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>27.60587066506365</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>66.20365881036024</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>2.459066</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0.2639036758505199</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>3.521335</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0.7492137121414508</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>5.878352</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>0.8201621878109926</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>4.910132</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>1.729372454621932</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>123.9280020139297</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>2.599599</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0.2789854895465741</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>4.942195</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>1.051521727434884</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>10.312416</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>1.438813747148365</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>3.505276</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>1.234575314929893</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-57.54442223658964</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>10.786658</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>1.157609716999225</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>1.993863</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.4242224894057195</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>0.81945</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0.1143316876569688</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>1.838845</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>0.6476501836038759</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>722.9151283256136</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>PIGMENTS, PAINTS, VARNISHES AND RELATED MATERIALS</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>0.845463</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.09073395894848213</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>3.694236</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.7860008397629265</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>4.865115</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.6787928593510694</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>1.228404</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0.4326498841064557</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>27.28058314294151</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D24" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>0.692037</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.1472406373461296</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>2.949273</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.4114898522803482</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>0.888937</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.3130879499154516</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-38.44058749431279</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>1.97455</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.2119060664295485</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>1.660788</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.353356083008284</v>
+      </c>
+      <c r="G25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H25" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>0.878753</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.3095010954117703</v>
+      </c>
+      <c r="K25" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>2.044436</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.2194061385262265</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>3.342579</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.7111808506478533</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>2.195402</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.3063079086527361</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>0.831778</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.2929562711471955</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>69.7748657971547</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>PUMPS (OTHER THAN PUMPS FOR LIQUIDS), AIR COMPRESSORS AND FANS; VENTILATING HOODS INCORPORATING A FAN; CENTRIFUGES; FILTERING APPARATUS; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>0.81163</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.1726857357182335</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>3.410245</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.4758058041048747</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>0.749166</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.2638599215539</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-77.99481744445143</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>26.688281</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>2.864150640133933</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>21.492334</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>4.572797344962611</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>27.966214</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>3.901915240705288</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>5.052542</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>1.779529951663297</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-72.8234347450507</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -987,136 +1298,611 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>19.23454614832106</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>83.01311057896382</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>61.50269106566201</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-44.70638330817172</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>32.03875134553283</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>0.8913741246184234</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>16.98688942103619</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>6.458557588805166</v>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>79.8740797270605</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>LIVE ANIMALS OTHER THAN ANIMALS OF DIVISION 03</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>VEGETABLES, FRESH, CHILLED, FROZEN OR SIMPLY PRESERVED; ROOTS, TUBERS AND OTHER EDIBLE VEGETABLE PRODUCTS, N.E.S., FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>058</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT, PRESERVED, AND FRUIT PREPARATIONS (EXCLUDING FRUIT JUICES)</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>OIL SEEDS AND OLEAGINOUS FRUITS OF A KIND USED FOR THE EXTRACTION OF 'SOFT' FIXED VEGETABLE OILS (EXCLUDING FLOURS AND MEALS)</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>WORN CLOTHING AND OTHER WORN TEXTILE ARTICLES; RAGS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1148,136 +1934,447 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>830.477325</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>89.12724865602421</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>363.769554</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>77.45584263123618</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>585.392458</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>81.68963246632417</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>185.66167</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>65.401645962784</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-18.77733986211355</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>53.716383</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>5.764869527946752</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>64.083527</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>13.64502204207715</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>72.769642</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>10.15476921242806</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>78.38014800000001</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>27.61038770149279</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>66.20365881036024</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>2.459066</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>0.2639082130792371</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>3.521335</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>0.7497822910486457</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>5.878352</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>0.8203050924644498</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>4.910132</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>1.729655424808667</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>123.9280020139297</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>2.599599</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>0.2789902860730747</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>4.942195</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>1.052319728145479</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>10.312416</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>1.439064445343163</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>3.505276</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>1.234777323471472</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-57.54442223658964</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>10.786658</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>1.157629619488398</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>1.993863</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.4245444322045832</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>0.81945</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>0.1143516087536087</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>1.838845</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>0.6477561559714268</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>722.9151283256136</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>PIGMENTS, PAINTS, VARNISHES AND RELATED MATERIALS</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>0.845463</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.09073551891434024</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>3.694236</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.7865973364517674</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>4.865115</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.6789111318827423</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>1.228404</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>0.4327206768487417</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>27.28058314294151</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>0.692037</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.1473523783878647</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>2.949273</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.4115615500684385</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>0.888937</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.3131391792243349</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-38.44058749431279</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>1.97455</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.2119097096766039</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>1.660788</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.3536242452325888</v>
+      </c>
+      <c r="G51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H51" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>0.878753</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.3095517378182278</v>
+      </c>
+      <c r="K51" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>2.044436</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.219409910720112</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>3.342579</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.7117205663849339</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>2.195402</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.3063612795910551</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>0.831778</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.2930042063912953</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>69.7748657971547</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>PUMPS (OTHER THAN PUMPS FOR LIQUIDS), AIR COMPRESSORS AND FANS; VENTILATING HOODS INCORPORATING A FAN; CENTRIFUGES; FILTERING APPARATUS; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>0.81163</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.1728167870662156</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>3.410245</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.4758887082725615</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>0.749166</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.2639030958805608</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-77.99481744445143</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>26.672261</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>2.862480608203694</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>21.135918</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>4.50037756176459</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>27.841353</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>3.885171158004895</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>5.006092</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>1.763458535308474</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-72.99824151987224</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1309,136 +2406,569 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>7.631972</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>31.56542456623749</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>4.008931</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>22.23031019940194</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>11.127889</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>61.09564671605976</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>2.63779</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>55.80414612541785</v>
+      </c>
+      <c r="K57" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>16.1238</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>66.68716717266521</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>11.960725</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>66.3245705550287</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>7.070666</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>38.82020318348389</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>2.055033</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>43.47554650846195</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-59.19774322470048</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>0.1933678864054141</v>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>0.157783021562053</v>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>0.08310694008009935</v>
+      </c>
+      <c r="I59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>0.3643425005675001</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>153.6750626012667</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>0.3279124816395455</v>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>0.1779408075806928</v>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>1.915056</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>10.61936185213112</v>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.2465394369385281</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>WASTE, PARINGS AND SCRAP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.3169789064682681</v>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.2218078604935025</v>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES OF THE MOTOR VEHICLES OF GROUPS 722, 781, 782 AND 783</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.1996270744441523</v>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>1.059120660642937</v>
+      </c>
+      <c r="E67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
